--- a/500all/speech_level/speeches_CHRG-114hhrg22394.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22394.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. The Subcommittee on Government Operations will come to order. And without objection, the chair is authorized to declare a recess at any time.    The Office of National Drug Control Policy, or the ONDCP, is charged with guiding the big picture strategy for addressing illicit drug problems here in this country and the consequences thereof. I think we can all agree that this is a problem that merits meaningful solutions. And over the years, we as a Nation have tried a variety of approaches to address the illicit drug problem. From its launch in 1988 to the last reauthorization in 2006, and still today, the ONDCP has been intimately involved in the spectrum of drug control efforts.    Today's hearing will take a look at the ONDCP, particularly since its last reauthorization, which expired at the end of fiscal year 2010. There are important questions for consideration. One, has the ONDCP evolved to match the evolution in our Nation's drug control strategies? Two, what is the value of this office and is it correctly placed and appropriately resourced to fulfill those functions?    And earlier this year, the agency actually sent a letter to Chairman Chaffetz and Ranking Member Cummings and their counterparts in the Senate, and the letter included proposed language for reauthorization of the ONDCP, and today's hearing will focus also and discuss that proposal.    We will also hear testimony from the Director of National Drug Control Policy, Mr. Botticelli, who will speak knowledgeably to the work that is being done there as well as the proposed authorization language. And as we look at this, these proposed changes to the authorization of the High Intensity Drug Trafficking Areas program, referred to as the HIDTA program, now, the HIDTA program has been a leader in bringing together local, State, national, and tribal law enforcement entities to reduce the supply of illegal drugs by targeting and disrupting drug-trafficking organizations. I might note that in that particular area, we are very familiar with that with local law enforcement in western North Carolina, as we have one of those areas that has that cooperation.    The ONDCP changes would allow for the use of the HIDTA funds for engaging in prevention and treatment efforts. Previously, only limited HIDTA funds would be used for prevention efforts and no funds were permitted for treatment. So in response to this proposal, the National HIDTA Directors Association wrote to members of the Oversight Committee suggesting a compromise that would allow for the use of funds for prevention and treatment, but with a cap. I imagine that the congressional liaison for the National HIDTA Directors Association, Mr. Kelley, will be able to provide further explanation on that letter and the proposed language.    And so we look forward to hearing from you and all the witnesses today. And I would now recognize Mr. Connolly, the ranking member of the Subcommittee on Government Operations, for his opening statement.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Meadows. Thank you, Mr. Chairman, and thank you for holding this hearing, a very important topic.    The Office of National Drug Control Policy plays a critical role in coordinating the Federal response to our troubling drug epidemic, in which the annual deaths from drug overdoses now outnumber those caused by gunshots or car accidents. The Office itself manages a budget of $375 million, with two national grant programs, and coordinates the related activities of 39 Federal departments, agencies, and programs, totaling more than $26 billion.    So it's more than a little concerning that Congress allowed the Office's formal authorization to expire 5 years ago, allowing it simply to subside on annual appropriations rather than a long-term authorization. It's been nearly a decade since Congress seriously considered our national drug control policies and activities, and as we'll hear from today's panel, a great deal has changed in that interim period--sadly, not for the better.    Mr. Kelley of the National HIDTA--High Intensity Drug Trafficking Areas program--Directors Association, aptly notes in his remarks that the scourge of drug abuse has no boundaries, it does not recognize geography, social, economic status, race, gender, or age. The efforts of the ONDCP are vital to and visible in each of our respective communities. So, Mr. Chairman, I appreciate the bipartisan spirit with which we've approached this hearing on the ONDCP's performance and its proposal for reauthorization.    I know many of us are troubled, very troubled, by the spike in heroin use in our communities. Heroin used to be actually a very static demand drug. No longer. In my home State of Virginia, for example, the number of people who died using heroin or other opiates is on track to climb for the third straight year. Heroin-related deaths doubled in my own home county of Fairfax, just across the river, between 2013 and 2014, and that follows a troubling trend all across the national capital region. And I know Eleanor Holmes Norton shares that concern as well.    Communities in my district have been fortunate to receive assistance from both the High Intensity Drug Trafficking Area program, which provides grants to local, State, and tribal law enforcement agencies to counter drug trafficking activities, and the Drug-Free Communities Program, which provides grants to create community partnerships aimed at reducing substance abuse, especially among young people. Virginia now has 20 counties out of 95 that have been designated as High Intensity Drug Trafficking Areas. Four are part of the larger Appalachian region HIDTA and 16 are part of the Washington-Baltimore area     While the HIDTA program has historically been more enforcement focused, we're beginning to see an increased emphasis on prevention and treatment, and I think that's appropriate. That's reflected in the administration's reauthorization proposal.    Current law caps at 5 percent the amount of funds that can be used for prevention activities--5 percent. Twenty-seven of the 28 designated regional High Intensity Drug Trafficking Areas support prevention activities. The statute actually prohibits funds from being used for treatment programs, with the exception of two grandfathered programs in the Washington-Baltimore and Northwest regions, as their efforts predate the prohibition in the previous authorization.    In fact, my district benefits from that particular exception, with Fairfax County receiving a subgrant to fund one full-time position--one--providing residential day treatment and medical detoxification services.    I think that 5 percent limit does not make sense, especially in light of a lot of changes in the demand for opiates and other drugs.    I look forward to hearing more from Director Botticelli about the shift to public health-based services within the National Drug Control Strategy. The administration's proposed reauthorization language would allow the regional drug trafficking areas, upon request of their boards, to spend funding on treatment efforts and to spend above the current cap on prevention efforts. That would amount to a considerable investment in strategies such as diversion or alternative sentencing and community reentry programs that have proven successful here in the national capital region and other communities across the country.    I appreciate, Mr. Kelley, with your law enforcement background, acknowledging that we cannot arrest our way out of this problem and that we're moving more and more to a partnership between public safety and public health to create a more holistic approach to the substance abuse challenges facing so many communities across America. Director Botticelli's compelling personal story speaks to the power of treatment and recovery.    Mr. Chairman, I hope our subcommittee can play a constructive role in helping to advance this important reauthorization effort, and I very much appreciate the bipartisan spirit with which you and our colleagues have approached it. I look forward to hearing the testimony this morning. Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. And as I listened to Mr. Connolly, I could not help but be reminded, in this day and age we are fully realizing that drug addiction has no boundaries--has no boundaries. It affects blacks, whites, rich, poor, from one coast to the other of this United States. And his statements, that is Mr. Connolly's statements with regard to treatment, ladies and gentlemen, some of the most profound words that will be spoken here is we better wake up and begin to address this more and more as a health problem, because, again, what we're seeing now with heroin, I've known about heroin for many, many years in Baltimore. But now it's spreading everywhere and now people are beginning to understand that prevention is so very, very crucial.    And so the Office of National Drug Control Policy, or ONDCP, has a difficult but crucial mission. It is tasked with leading efforts across the Federal agencies to reduce drug use and mitigate its consequences. ONDCP is also responsible for developing and implementing strategies and budgets annually while also furthering long-term goals. Although none of these responsibilities are simple, I have been impressed with how diligently this administration has tackled these tasks while being efficient with the resources that are provided.    We're here today to discuss the reauthorization of this Office's vital work, which includes the Drug-Free Communities Program, which I'm very familiar with, a valuable grant program that mobilizes our communities to prevent youth drug use. It also includes the High Intensity Drug Trafficking Areas, or HIDTA, program, which operates through regional efforts with State, local, and tribal law enforcement agencies to dismantle and disrupt drug-trafficking areas.    ONDCP's overall goals are substantial and the stakes are high. They include reducing drug use among our youth, reducing the chronic abuse of a wide range of substances, and lowering drug-related deaths and illnesses.    Despite what often seem to be insurmountable obstacles, ONDCP is making progress on many of these fronts by engaging all of our community stakeholders, from police officers to health professionals.    In 2010, ONDCP took a crucial step in recognizing that addressing drug addiction is not merely a public safety issue, it is a public health issue. We must tackle the demand for drugs as well as their supply. We must recognize that prevention and treatment are crucial tools that complement the law enforcement's efforts.    I have seen up close and personal the ways that drug abuse can be destructive. I've often said that if you want to destroy a people, if you want to destroy a community, and you want to do it slowly but surely, you can do it through drugs.    In my own city of Baltimore I've seen entire communities fractured and broken by drug use. I've seen landmarks like our world famous Lexington Market become synonymous with drug trafficking. I've seen people in so much pain, they don't even know they're in pain. I've seen people who used to be hard-working citizens in our communities staggering through our streets, slumped over from the effects of heroin addiction. Right now, if you went to Baltimore in certain areas, you will see hundreds of them, people who have lost their way. And this is not the Baltimore where I grew up and it is not the Baltimore I know is possible.    The leaders of the Washington-Baltimore HIDTA hold this conviction too. Over the years, they have demonstrated exactly how prevention and treatment efforts can complement law enforcement efforts. I'm also encouraged that our HIDTA is one of five organizations, as Mr. Connolly said, that will receive $2.5 million to address our Nation's heroin epidemic situation through the Heroin Response Strategy. Using wrap-around, a wrap-around approach that encompasses law enforcement, community involvement, and treatment and prevention strategies, the Washington-Baltimore HIDTA has dismantled 92 drug-trafficking organizations, seized almost 12,000 kilograms of marijuana and nearly 3,000 kilograms of cocaine and 410 kilograms of heroin all since 2013.    It is because of these demonstrated successes that I was pleased to learn that the ONDCP is asking that Congress equip all of its HIDTAs with crucial prevention and treatment tools as well. Today I look forward to learning more about the changes ONDCP is proposing and what it has been doing to address recommendations for improvement provided by the Government Accountability Office.    Finally, this is an issue that affects all of us, it affects all of us, and if it has not affected you yet, I promise you it probably will. Whether you live in west Baltimore or in the mountains of New Hampshire, drug abuse affects every community in America, every one of them.    I look forward to working with all of my colleagues to ensure full and swift reauthorization of ONDCP, a program that is absolutely crucial to the future success, safety, and health of our great Nation.    With that, Mr. Chairman, I thank you, and yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t xml:space="preserve">    Mr. Meadows. And the chair has noted the presence of the gentleman from Ohio, earlier has checked in, Mr. Turner, a member of the full committee, and his interest in this particular topic is important. He has stepped out for an Armed Services hearing, but will be back joining us. So without objection, we welcome Mr. Turner to participate fully in today's hearing. Seeing no objection, so ordered.    We will now recognize our panel of witnesses. And I'm pleased to welcome the Honorable Michael Botticelli. Is that correct?</t>
   </si>
   <si>
-    <t>Botticelli</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Botticelli. Botticelli.</t>
   </si>
   <si>
@@ -112,18 +100,12 @@
     <t xml:space="preserve">    Mr. Meadows. Thank you very much for your testimony.    Mr. Kelley, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Kelley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelley. Thank you. Chairman Meadows, Ranking Member Connolly, Ranking Member Cummings, and distinguished members of the subcommittee, I'm honored to appear before you today to offer testimony highlighting the High Intensity Drug Trafficking Area program and to speak to the reauthorization of the Office of National Drug Control Policy, specifically to the recommendations of the HIDTA directors with regard to proposed reauthorization language.    ONDCP establishes priorities and objectives for the Nation's drug policy. The Director is charged with producing the National Drug Control Strategy that directs the Nation's efforts. The current strategy promotes a focused and balanced approach.    The HIDTA program is an essential component of the National Drug Control Strategy. The 28 regional HIDTAs are in 48 States, Puerto Rico, the U.S. Virgin Islands, and the District of Columbia. HIDTAs enhance and coordinate anti-drug abuse efforts from a local, regional, and national perspective, leveraging resources at all levels in a true partnership.    At the national level, ONDCP provides policy direction and guidance to the HIDTA program. At the local level, each HIDTA is governed by an executive board comprised of an equal number of Federal, State, local, and tribal agencies. This provides a balanced and equal voice in identifying regional threats, developing strategies, and assessing performance.    The flexibility of this leadership model creates the ability for the executive board to quickly, effectively, efficiently adapt to emerging threats that may be unique to their own HIDTAs. Investigative support centers in each HIDTA create a communication infrastructure that facilitates information sharing among law enforcement agencies to effectively reduce the production, transportation, distribution, and use of drugs.    The strengths of the HIDTA program are truly multidimensional. One of the cornerstones of the program is its demonstrated ability to bring people and agencies together to work toward a common goal.    The neutrality of the HIDTA program is viewed as another key to its success. HIDTA is a program, not an agency. HIDTAs do not espouse the views of any one agency, nor are we beholden to the mandates of any one agency. HIDTA serves only to facilitate and coordinate.    While the enforcement mission remains paramount, HIDTAs are also involved in drug-prevention activities. The fact that we cannot arrest our way out of this drug problem is well recognized in the law enforcement community. The emerging partnership between public health and public safety has never been more important, and HIDTA provides the perfect platform to promote that partnership.    The Washington-Baltimore HIDTA seeks to break the cycle of drug abuse and crime through well-organized criminal justice-based treatment programs. The focus is to reduce crime in targeted communities and change the drug habits of repeat offenders.    The New England HIDTA has partnered with the Boston University School of Medicine SCOPE of Pain program. Here, the opioid heroin epidemic is addressed at the front end through extensive prescriber education. Through an innovative use of discretionary funding, five HIDTAs have jointly developed a heroin response strategy to address the severe heroin threat in their communities. The strategy provides a unique, unprecedented platform designed to enhance public health, public safety collaboration across 15 States.    ONDCP and the HIDTA program currently enjoy a collaborative and cooperative working relationship that has never been stronger. The National HIDTA Directors Association strongly encourages Congress to reauthorize ONDCP during this session.    The National HIDTA Directors Association supports the existing language of the ONDCP Reauthorization Act of 2015, with three exceptions. First, the existing authorization specifies that the Director shall ensure that no Federal funds appropriated for the program are expended for the establishment or expansion of treatment programs. The proposed revision of this prohibition would allow the Director, upon request of a HIDTA executive board, to authorize the expenditure of program funds to support drug treatment programs. We support this change, but believe that funding should not exceed a cap of 10 percent of the affected HIDTA's baseline budget.    Second, in the past, no more than 5 percent of HIDTA funds could be expended for the establishment of drug prevention programs. The new wording allows the Director, upon request of the HIDTA executive board, to authorize the expenditure of an amount greater than 5 percent of program funds. We support this change, but again believe that funding should not exceed a cap, a maximum cap of 10 percent of the affected HIDTA's baseline budget.    Third, and finally, the language authorizes an appropriation to ONDCP of $193.4 million for the HIDTA program. This amounts to a 22 percent reduction in program funding. This reduction would severely handicap the HIDTA program. The National HIDTA Directors Association respectfully recommends funding in the amount of $245 million, which was the amount awarded in fiscal year 2015.    I thank you for allowing me this opportunity to testify before you this morning and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Kelley, for your testimony.    Mr. Maurer.</t>
   </si>
   <si>
-    <t>Maurer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Maurer. Good morning, Chairman Meadows, Ranking Member Cummings, Ranking Member Connolly, and other members and staff. I'm pleased to be here today to discuss GAO's findings on Federal efforts to curtail illicit drug use and enhance coordination among Federal, State, and local agencies.    Combating drug use and dealing with its effects is an expensive proposition. The administration requested more than $27 billion to undertake these activities in 2016. Ensuring this money is well spent, that we're making progress, and that the various agencies are well coordinated is vitally important.    Over the years, GAO has helped Congress and the American public assess how well Federal programs are working. In many instances, it's, frankly, hard to tell, because agencies often don't have good enough performance measures. ONDCP, to its credit, has focused a great deal of time, attention, and resources on developing and using performance measures.    Five years ago, the National Drug Control Strategy established a series of goals with specific outcomes ONDCP hoped to achieve by 2015. In 2013, we reported that a related set of measures were generally consistent with effective performance management and useful for decisionmaking. That's important to remember, especially when the conversation turns to what those measures tell us.    Overall, there has been a lack of progress. According to a report ONDCP issued 2 weeks ago, none of the seven goals have been achieved, and in some key areas the trend lines are moving in the opposite direction. For example, the percentage of eighth graders who have ever used illicit drugs has increased rather than decreased. The number of drug-related deaths and emergency room visits has increased 19 percent rather than decreasing 15 percent as planned. Substantially more Americans now die every year of drug overdoses than in traffic crashes.    Now, it's also important to recognize progress in some key areas. For example, there have been substantial reductions in the use of alcohol and tobacco by eighth graders, and the 30-day prevalence of drug use by teenagers has also dropped.    There has also been recent progress in Federal drug prevention and treatment programs. Two years ago, we found the coordination across 76 Federal programs at 15 Federal agencies was all too often lacking. For example, 40 percent of the programs reported no coordination with other Federal agencies. We recommended that ONDCP take action to reduce the risk of duplication and improve coordination.    Since our report, ONDCP has done just that. It has conducted an inventory of the various programs and updated its budget process and monitoring efforts to enhance coordination.    Another GAO report highlighted the risks of duplication and overlap among various field-based multi-agency entities. To enhance coordination, ONDCP funds and supports multi-agency investigative support centers in HIDTAs. These centers were one of five information-sharing entities we reviewed, including joint terrorism task forces and urban area fusion centers.    We found that while these entities have distinct missions, roles, and responsibilities, their activities can overlap. For example, 34 of the 37 field-based entities we reviewed conducted overlapping analytical or investigative support activities. We also found that ONDCP and other agencies did not hold field-based entities accountable for coordination or assess opportunities to improve coordination.    Since our report, ONDCP and the Department of Homeland Security have taken actions to address our recommendations. However, they have not yet sufficiently enhanced coordination mechanisms or assessed where practices that enhance coordination, such as serving on one another's governance boards or collocating with other entities, can be applied to reduce overlap.    In conclusion, as Congress considers options for reauthorizing ONDCP, it's worth reflecting on the deeply ingrained nature of illicit drug use in this country. It's an extremely complex problem that involves millions of people, billions of dollars, and thousands of communities. There are very real costs in lives and livelihoods across the U.S. GAO stands ready to help Congress oversee ONDCP and the other Federal agencies as they work to reduce those costs.    Mr. Chairman, thank you for the opportunity to testify today. I look forward to your questions.</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. I appreciate that and enjoyed my time in your district over Thanksgiving. I'm notifying you of that now since you don't have a chance to call the sheriff.    Back to serious. Like many areas across the country, the communities in my district, Mahnomen County right on the Toledo line and others, have experienced some significant struggles in fighting against the growing tide of heroin use and abuse and also the misuse of medication, prescription pain medicines as well.    I'm aware that ONDCP has increased some of their efforts in this area, specifically through the Heroin Response Strategy. Unfortunately, this program is limited to certain regional areas.    Mr. Botticelli, what efforts has ONDCP undertaken to address prescription drug abuse and heroin use?</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you very much.    Gentlemen, thank you very much for being here today.    I just want to go over a couple of things that Mr. Botticelli said in his opening testimony, Mr. Maurer touched on briefly, and it's in the reports that we have in front of us.    I heard Mr. Botticelli said that they've made substantial or significant progress in the area since 2010, but I heard Mr. Maurer say something a little bit different. So let's drill down into these seven goals.    Mr. Maurer, I couldn't find the seven goals. Could you briefly tell us what they were that the GAO took a look at? You mentioned one of them, which was eighth grade marijuana use, I think, or something like that. But tell us what the seven goals were.</t>
   </si>
   <si>
@@ -391,9 +367,6 @@
     <t xml:space="preserve">    Mr. Meadows. I thank the gentleman. The chair recognizes the gentleman from Ohio, Mr. Turner for 5 minutes.</t>
   </si>
   <si>
-    <t>Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman. I want to follow on to the issues of my good friend, Gerry Connolly, about the issue of incarceration and treatment.    Director Botticelli, I want to thank you for your leadership on this issue of the heroin epidemic, and your visiting with members of the Ohio delegation about its impact in our communities.    As you know, we've discussed that judges and prosecutors in my district have said that upwards of 75 percent of the individuals they arrest or prosecute are suffering with substance abuse or addiction. And you and I have discussed the fact that actually the Federal Government has barriers in place that inhibit an ability for someone who is incarcerated to receive treatment, and I want to talk about two of those with you today and get your thoughts.    The SAMHSA policy, for example, since 1995, the Substance Abuse and Mental Health Services Administration has had a policy in place that prohibits the use of grants from its Center for Substance Abuse Treatment for treating individuals who are incarcerated. Obviously, in this instance, we're not talking about additional resources, just resources being applied to those who are incarcerated.    Our second one is that Medicaid IMD exclusion. Medicaid's institution for mental disease exclusion expressly prohibits reimbursement for services provided to individuals who are incarcerated. Now, these are individuals who are entitled to receive Medicaid, they qualify for Medicaid, and the treatment services that they would receive are not permitted during the period of incarceration, and one of the things that we know from heroin addiction is it often leads to theft to feed the addiction or other types of criminal activity that results in their incarceration.    Now, I've introduced H.R. 4076, the TREAT Act, which would repeal both of those prohibitions. It would allow SAMHSA money to be used during incarceration for treatment, and also for those individuals who are Medicaid-eligible during their incarceration for Medicaid to be able to reimburse for those expenses for treatment, because as you indicated, Mr. Kelley, people are not receiving treatment once they're incarcerated.    Director Botticelli, I was wondering if you would speak for a moment about those two exclusions of the use of Federal dollars, and whether or not you believe lifting those barriers might help others get treatment?</t>
   </si>
   <si>
@@ -427,9 +400,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. I appreciate this hearing, Mr. Chairman. We've heard--we've heard from Mr. Maurer about the increase in use, and I certainly am not going to blame that on HIDTA or the drug administration, nor does he. In fact, staying ahead of the drug du jour has become such a challenge that I think we ought to concede that it will always be a challenge. If we concede that, then looking into what we can really do would make sense.    I really have a question on the drug du jour in the District of Columbia, synthetic drugs, and another question on marijuana. But we certainly remember when the drug that the entire Nation was focused on was crack cocaine. Now, of course, everybody is focused on opiate and heroin, and it is going to change tomorrow.    I was very interested in Mr. Turner's question about treating people when they are behind bars, because I had a roundtable last night. You know, there are 6,000 Federal returning citizens now all around the country, because of the reduction in the sentence for mandatory minimums.    This was one of the great law and law enforcement American tragedies. We treated crack cocaine differently from cocaine, 100 to 1, and you essentially--or we essentially--by the way, Democrats and Republicans. This was certainly not partisan--essentially destroyed what was left of the African American family. Most of these were black and Latino men in their mid-30's, by the way, right at the prime of life.    All right. So today, you hear about opiates, of course, and heroin, and, well, you might, and about the law enforcement approach that you have been authorized to pursue. But I must ask you, Mr. Botticelli, in light of prevention, I don't see how you can prevent the next drug du jour. I mean, we haven't even brought up the word synthetic drugs yet, but I am cosponsor with several members on the other side of a bill to deal with that new phenomenon. But if--you can't expect law enforcement to prevent new drugs or drugs from changing, I'm not sure why they change.    At the very least, it seems to me, at least my roundtable told me, that once you have somebody, you will often find, as we did when we had these witnesses who had just been released from mandatory minimums, had their mandatory minimum reduced by an average of 2 years; in questioning them, the length--these, of course, were drug traffickers. They got into drug traffickers by using drugs, and I couldn't help but believe that if somehow treatment had been earlier available, we might have prevented what was one of the worst tragedies in law enforcement in American history, and now we're trying to make up for it.    So you say, okay, shouldn't be 5 percent, should be 10 percent. That has the ring of a number pulled out of the air, because you now have 5 percent because you're flat-funded, and because you don't think you can get anymore. I mean, is that essentially the long and short of it in terms of what is effective, as you now pursue newer and newer drugs every decade, it would appear? Where did you get 10 percent from, especially as a cap?</t>
   </si>
   <si>
@@ -478,9 +448,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you. I guess I would ask Director Botticelli, how many of people died of heroin overdoses last year in this country?</t>
   </si>
   <si>
@@ -577,9 +544,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and thank you--thank the witnesses for being here. Let me ask of Director Botticelli. You know, and let's stay on the subject of heroin addiction. We are in an epidemic that's afflicting Americans from every part of this country of every background, so reauthorization of your office is timely and urgent.    I've heard you speak eloquently and powerfully about how treatment is one of the ways that we can reduce the 17,000 deaths annually from prescription painkillers, and 8,000 deaths annually from heroin. And I have seen firsthand the value of life-saving and life-renewing services offered by community-based nonprofits that provide residential treatment for substance use disorder.    They provide the full continuum of care for addiction, from residential treatment to outpatient to aftercare support upon completion of their program that is essential to them staying clean and being a productive member of society. So it shouldn't be all about throw them in jail and lock them all up. I think this is a disease that needs to be treated.    And I agree with Mr. Turner. Unfortunately, if you are poor, and you rely on Medicaid for your health care, which we know a lot of States have not expanded, under the ACA, there is an outmoded policy, over 50 years old, known as the Institution of Mental Diseases Exclusion, better known as the IMD exclusion, which bars Medicaid from paying for residential treatment at a facility of more than 16 beds. And The New York Times covered this extensively last year about how the IMD exclusion prevents people from accessing the intensive care they need as heroin addiction is surging.    This yields a two-tiered healthcare system, where only people on Medicaid lose access to a kind of treatment that may be clinically indicated and medically necessary. I believe this is wrong, and it must be changed, and I want to join with my friend from Ohio, Mr. Turner, in trying to change that.    Mr. Director, do you agree that people on Medicaid should have access to the same kind of treatment for substance use disorder of people who don't rely on Medicaid?</t>
   </si>
   <si>
@@ -601,9 +565,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman, and thank all of you for being here. Gentlemen, as you can imagine, prescription drug abuse is very important to me. As a pharmacist and the only pharmacist in Congress, I have dealt with this, I've experienced it, I've lived it, I've seen it to--I've seen it ruining lives, I've seen it ruin families, and it's obviously very, very important to me.    As a matter of fact, as a member of the Georgia State Senate, I sponsored Senate Bill 36, which created the prescription drug--monitoring program in the State of Georgia, something I'm very proud of.    And Mr. Botticelli, I wanted to ask you, can you tell me what the National Drug Control Policy, what's your direct role in combating prescription drug abuse?</t>
   </si>
   <si>
@@ -667,9 +628,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman, and I want to thank the witnesses for your excellent testimony.    Full disclosure. Mike Botticelli is a pal of mine and used to run the Substance Abuse Bureau in Massachusetts, and Mr. Kelley, my district is a high-intensity drug trafficking area, and Mr. Kelley has been a frequent flier to my district in trying to address the problem there.    Most pointedly, we've had a critical situation in Massachusetts in my district, as well as other parts of the State, and maybe--maybe just explaining that will offer some value to what the office of National Drug Control Policy actually does.    We have had a pernicious problem with heroin coming into my district from Mexico, and it was through Director Botticelli's help that we sort of figured--figured all this out, but it's coming out of Mexico and Colombia. The earlier drug trafficking network was through the Dominican Republican. We had a lot of Dominican gangs that were providing that, as Mr. Kelley had informed us. But between the office of the National Drug Control Policy and HIDTA, we were able to bring in resources from--now, remember, we are dealing with a system that is--we've got local towns, cities, counties, the State, now the--one of the hot areas was Providence, Rhode Island, so we're dealing with Rhode Island as well, and then, of course, we're dealing with the Mexican border and the Mexican Government.    So ONDCP actually pulls all that together so we can get all these resources. They brought--I had a number of homicides in my district that were, that have the population in full alarm, brutal, brutal murders, and directly tied to the drug trade. And so ONDCP did a remarkable job. And I just--you know, from member to member and how you deal with this in your district, ONDCP is a very, very important part of that. And that's--that's how we bring all these resources together, which are scarce.    I do want to express support for Mr. Turner's idea about maybe accessing SAMHSA, but they're short-funded on that end as well, as Director Botticelli pointed out, but maybe we could do something on a pilot program where county prisons or State prisons might identify a certain program in a certain area like Dayton, Ohio or like Gloucester, Massachusetts where we're trying some innovative stuff here to deal with the inmate--or potential inmate population.    So I just appreciate the work that you all have been doing, and thank you, Mr. Maurer, for your testimony as well.    I want to just back up a little bit because one of the--one of the problems that I see on a day-to-day basis, and I'm dealing with it. I'm up to my neck in this stuff in my district, is the power of oxycodone, and I've got--I could tell you some horror stories about, you know, young people that we've been dealing with that, you know, one young woman and had a tooth extraction and got a prescription of OxyContin, and then she falsely--she tells me now she falsely claimed a persistent tooth pain, got another prescription of OxyContin. Two scrips later, she's fully, fully addicted, and then she started complaining about other teeth, having other extractions. So this young woman was having teeth pulled out of her head just to get the OxyContin.    Now, when people are doing that, it tells you that this is a very powerful, powerful drug, and because of the tolerance that--what it does to the brain and because of the tolerance that develops and resistance that develops, greater dosages are needed. So using that as just one example, and I can give you a bunch more, why is it that we're allowing drug companies to produce these powerful, powerful drugs that--by which they are building a customer base for life. By getting people on this OxyContin, it is--it's overloading their brains, and it's just--it's grabbing them, and there's a commercial advantage to producing customers for life.    If you can get these people hooked, you've got them forever, they can't get off this. So, you know--and now the FDA, God bless them, but they just expanded the use to children, and so it seems like we're not--we're not all rowing in the same direction here. I actually--when I was first dealing with it, I actually filed a bill to ban OxyContin, and there were more lawyers and lobbyists all over me on that. I didn't have a prayer.    So how--what is it that we could do to sort of look again at the substance that we're allowing people to sell out there. And I'm not against pain management, but this is ridiculous. We're overmedicated. You know, we've got--you know, it's just off the charts in terms of the opioids that we're putting out in the street. How do we address that issue?</t>
   </si>
   <si>
@@ -781,9 +739,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you very much, and good morning, gentlemen. Thank you for the work that you do. You know, I am so incredibly appreciative of everything that you all are putting forward in your testimony, your thoughtfulness. My first job out of law school was a narcotics prosecutor in the Bronx, so I understand this completely and the importance of the work that you do.    As a Member of Congress representing the United States Virgin Islands, I very much strongly support the bipartisan effort of reauthorizing the Office of National Drug Control Policy. I see how important it is, not only for our Nation in terms of treatment, but preventative as well in terms of stopping the flow of drugs in and out of this country and its transportation throughout.    For years, the otherwise peaceful communities in the U.S. Virgin Islands have been experiencing elevated levels of crime and violence. Much of it is related to our economy, and that economy has, in turn, moved tremendously to a growth in illegal drug trade. And we are very grateful for HIDTA's presence in the Virgin Islands, and would be in favor of increased presence in the Virgin Islands in Puerto Rico, because we are aware that much of the traffic of drugs that's coming into the mainland is coming through the Caribbean corridor, which many people are not aware of how much drugs are coming into this country through such a small area of the United States.    And so you can imagine, if it's coming through such a small and porous border in this small community, the effect, the tremendous effect it's having on the people that live there, neighborhoods, individuals completely afraid to go out not only at night, but now even during the day where we're having drug wars and shootings occurring, not even blocks away from schools in the middle of the day in this community.    And although a significant effort has been made in recent years to secure additional Federal attention and resources to address drug trafficking through the U.S. territories in the Caribbean, in our opinion, much remains to be done to help stem the flow of drugs and related crime, as well as to diminish the negative impact of drug abuse in the communities across the United States, Virgin Islands, and Puerto Rico.    Now, in response to a congressional directive earlier this year, ONDCP took a major step forward in helping to promote a well-coordinated Federal response to those issues by publishing the first ever Caribbean border counternarcotic strategy. And I would ask you, Director Botticelli, as well as Mr. Kelley, as to whether or not you believe that explicitly including the U.S. Virgin Islands and Puerto Rico and statutory mission of ONDCP would help ensure that drug-related issues facing the American's Caribbean border are fully included in aspects of your work.    Because we're so small in numbers, in population, people are unaware that almost 40 percent of the drugs that come into this country come through those two areas.</t>
   </si>
   <si>
@@ -845,9 +800,6 @@
   </si>
   <si>
     <t>400251</t>
-  </si>
-  <si>
-    <t>Carolyn B. Maloney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Maloney. Okay. Thank you very much and thank you for this hearing, all of your testimony, and I join this chairman in really underscoring that you should not be eliminating review processes, but strengthening them, and certainly, knowing the problem that we haven't, we shouldn't be reducing what we're spending, but we should be maintaining it, hopefully growing on it.    But I want to go back to the conversations we've been having on opiates, that they've been prescribed very deeply and strongly and the increase of prescriptions for it. Are you tracking whether the prescriptions are coming from doctors or are there illegal prescriptions?</t>
@@ -1381,11 +1333,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1405,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1433,11 +1381,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1457,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1485,11 +1429,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1511,11 +1453,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1535,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1563,11 +1501,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1587,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1615,11 +1549,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1639,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1667,11 +1597,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1691,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1719,11 +1645,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1743,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1771,11 +1693,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1795,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1823,11 +1741,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1847,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1873,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1899,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1925,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1951,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1977,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2003,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2029,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2055,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2083,11 +1981,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2107,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2133,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2159,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2185,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2211,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2237,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2263,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2289,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2317,11 +2197,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2341,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2367,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2393,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2419,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2445,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2471,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2497,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
         <v>59</v>
-      </c>
-      <c r="G45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2523,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2549,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2575,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2601,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2627,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2653,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2679,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2705,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2731,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2757,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2783,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2809,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2837,11 +2677,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2861,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2887,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2913,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2939,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2965,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2991,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3017,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3043,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3071,11 +2893,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3095,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3123,11 +2941,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3147,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3173,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3199,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3225,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3251,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3277,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3303,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3329,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3355,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3381,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3407,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3433,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3459,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3485,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3511,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3537,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3563,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3589,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3615,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3641,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3667,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3693,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3719,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3745,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3771,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3797,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3823,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3849,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3875,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3901,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3927,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3953,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3979,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4007,11 +3757,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4031,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>125</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4057,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4083,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>125</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4109,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4135,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>125</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4161,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4187,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4213,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4239,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>125</v>
-      </c>
-      <c r="H112" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4267,11 +3997,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4291,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
-      </c>
-      <c r="G114" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4317,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4343,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>136</v>
-      </c>
-      <c r="G116" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4369,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4395,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4421,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4447,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>136</v>
-      </c>
-      <c r="G120" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4473,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4499,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>136</v>
-      </c>
-      <c r="G122" t="s">
-        <v>137</v>
-      </c>
-      <c r="H122" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4525,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4551,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4577,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4603,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>136</v>
-      </c>
-      <c r="G126" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4629,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4657,11 +4357,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4681,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>153</v>
-      </c>
-      <c r="G129" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4707,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4733,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>153</v>
-      </c>
-      <c r="G131" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4759,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4785,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
-      </c>
-      <c r="G133" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4811,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4837,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4863,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4889,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>153</v>
-      </c>
-      <c r="G137" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4915,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4941,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>153</v>
-      </c>
-      <c r="G139" t="s">
+        <v>143</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>154</v>
-      </c>
-      <c r="H139" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4967,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4993,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>153</v>
-      </c>
-      <c r="G141" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5019,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5045,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>153</v>
-      </c>
-      <c r="G143" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5071,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5097,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>153</v>
-      </c>
-      <c r="G145" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5123,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5149,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>153</v>
-      </c>
-      <c r="G147" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5175,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5201,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>153</v>
-      </c>
-      <c r="G149" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5227,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5253,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>153</v>
-      </c>
-      <c r="G151" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5279,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5305,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>153</v>
-      </c>
-      <c r="G153" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5331,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5357,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>153</v>
-      </c>
-      <c r="G155" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5383,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5409,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>153</v>
-      </c>
-      <c r="G157" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5437,11 +5077,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5461,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>153</v>
-      </c>
-      <c r="G159" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5489,11 +5125,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5513,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>186</v>
-      </c>
-      <c r="G161" t="s">
-        <v>187</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5539,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5565,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
-      </c>
-      <c r="G163" t="s">
-        <v>187</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5591,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5617,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
-      </c>
-      <c r="G165" t="s">
-        <v>187</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5645,11 +5269,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5669,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>194</v>
-      </c>
-      <c r="G167" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5695,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5721,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>194</v>
-      </c>
-      <c r="G169" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5747,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5773,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>194</v>
-      </c>
-      <c r="G171" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5799,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5825,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>194</v>
-      </c>
-      <c r="G173" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5851,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5877,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>194</v>
-      </c>
-      <c r="G175" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5903,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5929,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>194</v>
-      </c>
-      <c r="G177" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5955,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5981,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>194</v>
-      </c>
-      <c r="G179" t="s">
+        <v>182</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
         <v>195</v>
-      </c>
-      <c r="H179" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6007,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6033,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G181" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6059,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6085,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>194</v>
-      </c>
-      <c r="G183" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6111,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6137,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>194</v>
-      </c>
-      <c r="G185" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6165,11 +5749,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6189,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>216</v>
-      </c>
-      <c r="G187" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6217,11 +5797,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6241,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6267,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>216</v>
-      </c>
-      <c r="G190" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6295,11 +5869,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6319,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6347,11 +5917,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6371,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6399,11 +5965,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6423,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6451,11 +6013,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6475,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6503,11 +6061,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6527,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6555,11 +6109,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6579,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6607,11 +6157,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6631,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6659,11 +6205,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6683,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6711,11 +6253,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6735,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6763,11 +6301,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6787,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6815,11 +6349,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6839,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6867,11 +6397,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6891,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6919,11 +6445,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6943,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6971,11 +6493,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6995,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7023,11 +6541,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7047,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7075,11 +6589,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7099,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7127,11 +6637,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7151,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7179,11 +6685,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7203,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>254</v>
-      </c>
-      <c r="G226" t="s">
-        <v>255</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7229,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7255,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>254</v>
-      </c>
-      <c r="G228" t="s">
-        <v>255</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7281,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7307,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>254</v>
-      </c>
-      <c r="G230" t="s">
-        <v>255</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7333,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7359,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>254</v>
-      </c>
-      <c r="G232" t="s">
-        <v>255</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7385,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7413,11 +6901,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7437,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7465,11 +6949,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7489,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7517,11 +6997,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7541,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7569,11 +7045,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7593,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7621,11 +7093,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7645,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7673,11 +7141,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7697,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7725,11 +7189,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7749,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>276</v>
-      </c>
-      <c r="G247" t="s">
-        <v>277</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7775,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7801,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>276</v>
-      </c>
-      <c r="G249" t="s">
-        <v>277</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7827,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7853,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>276</v>
-      </c>
-      <c r="G251" t="s">
-        <v>277</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7879,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7905,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>276</v>
-      </c>
-      <c r="G253" t="s">
-        <v>277</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7931,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>18</v>
-      </c>
-      <c r="G254" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7957,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>276</v>
-      </c>
-      <c r="G255" t="s">
-        <v>277</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7983,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>18</v>
-      </c>
-      <c r="G256" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8009,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>276</v>
-      </c>
-      <c r="G257" t="s">
-        <v>277</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8035,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8063,11 +7501,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8087,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>153</v>
-      </c>
-      <c r="G260" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8113,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8139,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>153</v>
-      </c>
-      <c r="G262" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8165,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8191,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>153</v>
-      </c>
-      <c r="G264" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8217,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
-      </c>
-      <c r="G265" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8243,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>153</v>
-      </c>
-      <c r="G266" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8269,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>18</v>
-      </c>
-      <c r="G267" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8295,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>153</v>
-      </c>
-      <c r="G268" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8321,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>153</v>
-      </c>
-      <c r="G269" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8347,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>18</v>
-      </c>
-      <c r="G270" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8373,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>153</v>
-      </c>
-      <c r="G271" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8399,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
-      </c>
-      <c r="G272" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8425,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>153</v>
-      </c>
-      <c r="G273" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8451,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8479,11 +7885,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8503,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>136</v>
-      </c>
-      <c r="G276" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8529,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>18</v>
-      </c>
-      <c r="G277" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8555,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>136</v>
-      </c>
-      <c r="G278" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8581,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>18</v>
-      </c>
-      <c r="G279" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8607,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>136</v>
-      </c>
-      <c r="G280" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8633,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8659,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>136</v>
-      </c>
-      <c r="G282" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8685,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>18</v>
-      </c>
-      <c r="G283" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8711,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>136</v>
-      </c>
-      <c r="G284" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8737,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>18</v>
-      </c>
-      <c r="G285" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8763,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>136</v>
-      </c>
-      <c r="G286" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8789,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>18</v>
-      </c>
-      <c r="G287" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8815,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>136</v>
-      </c>
-      <c r="G288" t="s">
-        <v>137</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8843,11 +8221,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8867,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>18</v>
-      </c>
-      <c r="G290" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8893,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>18</v>
-      </c>
-      <c r="G291" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8921,11 +8293,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
